--- a/Outputs/Main/SDID_Results_Incomplete_Pathways.xlsx
+++ b/Outputs/Main/SDID_Results_Incomplete_Pathways.xlsx
@@ -249,10 +249,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0038627</v>
+        <v>-0.0033973</v>
       </c>
       <c r="C2">
-        <v>0.0050039</v>
+        <v>0.0054399</v>
       </c>
       <c r="D2" s="1">
         <f>B2 - (1.96 * C2)</f>
@@ -269,10 +269,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0036078</v>
+        <v>0.0035499</v>
       </c>
       <c r="C3">
-        <v>0.0018058</v>
+        <v>0.0036372</v>
       </c>
       <c r="D3" s="4">
         <f>B3 - (1.96 * C3)</f>
@@ -289,10 +289,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0002557</v>
+        <v>0.0002059</v>
       </c>
       <c r="C4">
-        <v>0.0007637</v>
+        <v>0.0009911</v>
       </c>
       <c r="D4" s="7">
         <f>B4 - (1.96 * C4)</f>
